--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_T45_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_T45_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03212158865895828</v>
+        <v>0.04463932893276446</v>
       </c>
       <c r="C2">
-        <v>0.5134929383467417</v>
+        <v>0.5563105143949441</v>
       </c>
       <c r="D2">
-        <v>0.5841205420412222</v>
+        <v>0.6682676647472701</v>
       </c>
       <c r="E2">
-        <v>0.7642777911474481</v>
+        <v>0.817476400116401</v>
       </c>
       <c r="F2">
-        <v>0.7845269688049712</v>
+        <v>0.8399212116787623</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04463932893276446</v>
+        <v>-0.04959926954625594</v>
       </c>
       <c r="C3">
-        <v>0.5563105143949441</v>
+        <v>0.5001880640764477</v>
       </c>
       <c r="D3">
-        <v>0.6682676647472701</v>
+        <v>0.5928923876220049</v>
       </c>
       <c r="E3">
-        <v>0.817476400116401</v>
+        <v>0.7699950568815392</v>
       </c>
       <c r="F3">
-        <v>0.8399212116787623</v>
+        <v>0.7920443919614847</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.04959926954625594</v>
+        <v>0.0418877556493024</v>
       </c>
       <c r="C4">
-        <v>0.5001880640764477</v>
+        <v>0.3990978627449576</v>
       </c>
       <c r="D4">
-        <v>0.5928923876220049</v>
+        <v>0.4202563537498312</v>
       </c>
       <c r="E4">
-        <v>0.7699950568815392</v>
+        <v>0.6482718208821291</v>
       </c>
       <c r="F4">
-        <v>0.7920443919614847</v>
+        <v>0.6681331361749159</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0418877556493024</v>
+        <v>0.1640516070889592</v>
       </c>
       <c r="C5">
-        <v>0.3990978627449576</v>
+        <v>0.3138597579017368</v>
       </c>
       <c r="D5">
-        <v>0.4202563537498312</v>
+        <v>0.2168740114234605</v>
       </c>
       <c r="E5">
-        <v>0.6482718208821291</v>
+        <v>0.4656973388623351</v>
       </c>
       <c r="F5">
-        <v>0.6681331361749159</v>
+        <v>0.4511426939707701</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1640516070889592</v>
+        <v>0.1219509228516585</v>
       </c>
       <c r="C6">
-        <v>0.3138597579017368</v>
+        <v>0.3069632200035473</v>
       </c>
       <c r="D6">
-        <v>0.2168740114234605</v>
+        <v>0.1600708036365558</v>
       </c>
       <c r="E6">
-        <v>0.4656973388623351</v>
+        <v>0.4000884947565423</v>
       </c>
       <c r="F6">
-        <v>0.4511426939707701</v>
+        <v>0.3954338284360399</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1219509228516585</v>
+        <v>0.1397471008904613</v>
       </c>
       <c r="C7">
-        <v>0.3069632200035473</v>
+        <v>0.2788282874804134</v>
       </c>
       <c r="D7">
-        <v>0.1600708036365558</v>
+        <v>0.1873748606623431</v>
       </c>
       <c r="E7">
-        <v>0.4000884947565423</v>
+        <v>0.4328681793136833</v>
       </c>
       <c r="F7">
-        <v>0.3954338284360399</v>
+        <v>0.4264185062740307</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1397471008904613</v>
+        <v>0.1371477073313899</v>
       </c>
       <c r="C8">
-        <v>0.2788282874804134</v>
+        <v>0.3017865247828347</v>
       </c>
       <c r="D8">
-        <v>0.1873748606623431</v>
+        <v>0.1605887215133184</v>
       </c>
       <c r="E8">
-        <v>0.4328681793136833</v>
+        <v>0.4007352261947013</v>
       </c>
       <c r="F8">
-        <v>0.4264185062740307</v>
+        <v>0.3932788433212083</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1371477073313899</v>
+        <v>0.1401056802292451</v>
       </c>
       <c r="C9">
-        <v>0.3017865247828347</v>
+        <v>0.2816089537871457</v>
       </c>
       <c r="D9">
-        <v>0.1605887215133184</v>
+        <v>0.2148615712472957</v>
       </c>
       <c r="E9">
-        <v>0.4007352261947013</v>
+        <v>0.4635316291767971</v>
       </c>
       <c r="F9">
-        <v>0.3932788433212083</v>
+        <v>0.4634168389002237</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1401056802292451</v>
+        <v>0.1061516567236955</v>
       </c>
       <c r="C10">
-        <v>0.2816089537871457</v>
+        <v>0.3103361548660022</v>
       </c>
       <c r="D10">
-        <v>0.2148615712472957</v>
+        <v>0.1599817766894938</v>
       </c>
       <c r="E10">
-        <v>0.4635316291767971</v>
+        <v>0.3999772202132189</v>
       </c>
       <c r="F10">
-        <v>0.4634168389002237</v>
+        <v>0.4064939557625106</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1061516567236955</v>
+        <v>0.09702283882948032</v>
       </c>
       <c r="C11">
-        <v>0.3103361548660022</v>
+        <v>0.3111699130949587</v>
       </c>
       <c r="D11">
-        <v>0.1599817766894938</v>
+        <v>0.2143114512357824</v>
       </c>
       <c r="E11">
-        <v>0.3999772202132189</v>
+        <v>0.4629378481349115</v>
       </c>
       <c r="F11">
-        <v>0.4064939557625106</v>
+        <v>0.4801148534245816</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_T45_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_T45_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04463932893276446</v>
+        <v>0.03212158865895828</v>
       </c>
       <c r="C2">
-        <v>0.5563105143949441</v>
+        <v>0.5134929383467417</v>
       </c>
       <c r="D2">
-        <v>0.6682676647472701</v>
+        <v>0.5841205420412222</v>
       </c>
       <c r="E2">
-        <v>0.817476400116401</v>
+        <v>0.7642777911474481</v>
       </c>
       <c r="F2">
-        <v>0.8399212116787623</v>
+        <v>0.7845269688049712</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04959926954625594</v>
+        <v>0.04463932893276446</v>
       </c>
       <c r="C3">
-        <v>0.5001880640764477</v>
+        <v>0.5563105143949441</v>
       </c>
       <c r="D3">
-        <v>0.5928923876220049</v>
+        <v>0.6682676647472701</v>
       </c>
       <c r="E3">
-        <v>0.7699950568815392</v>
+        <v>0.817476400116401</v>
       </c>
       <c r="F3">
-        <v>0.7920443919614847</v>
+        <v>0.8399212116787623</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0418877556493024</v>
+        <v>-0.04959926954625594</v>
       </c>
       <c r="C4">
-        <v>0.3990978627449576</v>
+        <v>0.5001880640764477</v>
       </c>
       <c r="D4">
-        <v>0.4202563537498312</v>
+        <v>0.5928923876220049</v>
       </c>
       <c r="E4">
-        <v>0.6482718208821291</v>
+        <v>0.7699950568815392</v>
       </c>
       <c r="F4">
-        <v>0.6681331361749159</v>
+        <v>0.7920443919614847</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1640516070889592</v>
+        <v>0.0418877556493024</v>
       </c>
       <c r="C5">
-        <v>0.3138597579017368</v>
+        <v>0.3990978627449576</v>
       </c>
       <c r="D5">
-        <v>0.2168740114234605</v>
+        <v>0.4202563537498312</v>
       </c>
       <c r="E5">
-        <v>0.4656973388623351</v>
+        <v>0.6482718208821291</v>
       </c>
       <c r="F5">
-        <v>0.4511426939707701</v>
+        <v>0.6681331361749159</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1219509228516585</v>
+        <v>0.1640516070889592</v>
       </c>
       <c r="C6">
-        <v>0.3069632200035473</v>
+        <v>0.3138597579017368</v>
       </c>
       <c r="D6">
-        <v>0.1600708036365558</v>
+        <v>0.2168740114234605</v>
       </c>
       <c r="E6">
-        <v>0.4000884947565423</v>
+        <v>0.4656973388623351</v>
       </c>
       <c r="F6">
-        <v>0.3954338284360399</v>
+        <v>0.4511426939707701</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1397471008904613</v>
+        <v>0.1219509228516585</v>
       </c>
       <c r="C7">
-        <v>0.2788282874804134</v>
+        <v>0.3069632200035473</v>
       </c>
       <c r="D7">
-        <v>0.1873748606623431</v>
+        <v>0.1600708036365558</v>
       </c>
       <c r="E7">
-        <v>0.4328681793136833</v>
+        <v>0.4000884947565423</v>
       </c>
       <c r="F7">
-        <v>0.4264185062740307</v>
+        <v>0.3954338284360399</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1371477073313899</v>
+        <v>0.1397471008904613</v>
       </c>
       <c r="C8">
-        <v>0.3017865247828347</v>
+        <v>0.2788282874804134</v>
       </c>
       <c r="D8">
-        <v>0.1605887215133184</v>
+        <v>0.1873748606623431</v>
       </c>
       <c r="E8">
-        <v>0.4007352261947013</v>
+        <v>0.4328681793136833</v>
       </c>
       <c r="F8">
-        <v>0.3932788433212083</v>
+        <v>0.4264185062740307</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1401056802292451</v>
+        <v>0.1371477073313899</v>
       </c>
       <c r="C9">
-        <v>0.2816089537871457</v>
+        <v>0.3017865247828347</v>
       </c>
       <c r="D9">
-        <v>0.2148615712472957</v>
+        <v>0.1605887215133184</v>
       </c>
       <c r="E9">
-        <v>0.4635316291767971</v>
+        <v>0.4007352261947013</v>
       </c>
       <c r="F9">
-        <v>0.4634168389002237</v>
+        <v>0.3932788433212083</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1061516567236955</v>
+        <v>0.1401056802292451</v>
       </c>
       <c r="C10">
-        <v>0.3103361548660022</v>
+        <v>0.2816089537871457</v>
       </c>
       <c r="D10">
-        <v>0.1599817766894938</v>
+        <v>0.2148615712472957</v>
       </c>
       <c r="E10">
-        <v>0.3999772202132189</v>
+        <v>0.4635316291767971</v>
       </c>
       <c r="F10">
-        <v>0.4064939557625106</v>
+        <v>0.4634168389002237</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.09702283882948032</v>
+        <v>0.1061516567236955</v>
       </c>
       <c r="C11">
-        <v>0.3111699130949587</v>
+        <v>0.3103361548660022</v>
       </c>
       <c r="D11">
-        <v>0.2143114512357824</v>
+        <v>0.1599817766894938</v>
       </c>
       <c r="E11">
-        <v>0.4629378481349115</v>
+        <v>0.3999772202132189</v>
       </c>
       <c r="F11">
-        <v>0.4801148534245816</v>
+        <v>0.4064939557625106</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
